--- a/wine2.xlsx
+++ b/wine2.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">belaya_ledi.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Напитки</t>
+    <t xml:space="preserve">Вторсырьё</t>
   </si>
   <si>
     <t xml:space="preserve">Коньяк классический</t>
@@ -248,10 +248,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
